--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lamc2-Itgb4.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H2">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I2">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J2">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.201463666666667</v>
+        <v>9.771369666666667</v>
       </c>
       <c r="N2">
-        <v>9.604391</v>
+        <v>29.314109</v>
       </c>
       <c r="O2">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="P2">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="Q2">
-        <v>1.907160995342889</v>
+        <v>7.773903022283445</v>
       </c>
       <c r="R2">
-        <v>17.164448958086</v>
+        <v>69.96512720055101</v>
       </c>
       <c r="S2">
-        <v>0.02472669815041898</v>
+        <v>0.07655756239035423</v>
       </c>
       <c r="T2">
-        <v>0.02472669815041898</v>
+        <v>0.07655756239035423</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H3">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I3">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J3">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>8.274391</v>
       </c>
       <c r="O3">
-        <v>0.1967696347387152</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="P3">
-        <v>0.1967696347387151</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="Q3">
-        <v>1.643060530898444</v>
+        <v>2.194312411216556</v>
       </c>
       <c r="R3">
-        <v>14.787544778086</v>
+        <v>19.748811700949</v>
       </c>
       <c r="S3">
-        <v>0.02130258635196583</v>
+        <v>0.02160963532013494</v>
       </c>
       <c r="T3">
-        <v>0.02130258635196583</v>
+        <v>0.02160963532013493</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H4">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I4">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J4">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.614187000000001</v>
+        <v>1.889356</v>
       </c>
       <c r="N4">
-        <v>22.842561</v>
+        <v>5.668068</v>
       </c>
       <c r="O4">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="P4">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="Q4">
-        <v>4.535887946767334</v>
+        <v>1.503133216694667</v>
       </c>
       <c r="R4">
-        <v>40.822991520906</v>
+        <v>13.528198950252</v>
       </c>
       <c r="S4">
-        <v>0.05880863355412465</v>
+        <v>0.01480288790434566</v>
       </c>
       <c r="T4">
-        <v>0.05880863355412465</v>
+        <v>0.01480288790434566</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5957153333333333</v>
+        <v>0.7955796666666667</v>
       </c>
       <c r="H5">
-        <v>1.787146</v>
+        <v>2.386739</v>
       </c>
       <c r="I5">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="J5">
-        <v>0.108261553568735</v>
+        <v>0.1186174580157865</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4432716666666667</v>
+        <v>0.7207983333333333</v>
       </c>
       <c r="N5">
-        <v>1.329815</v>
+        <v>2.162395</v>
       </c>
       <c r="O5">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302628</v>
       </c>
       <c r="P5">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302627</v>
       </c>
       <c r="Q5">
-        <v>0.2640637286655556</v>
+        <v>0.5734524977672222</v>
       </c>
       <c r="R5">
-        <v>2.37657355799</v>
+        <v>5.161072479905</v>
       </c>
       <c r="S5">
-        <v>0.003423635512225545</v>
+        <v>0.005647372400951707</v>
       </c>
       <c r="T5">
-        <v>0.003423635512225545</v>
+        <v>0.005647372400951706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.701028</v>
       </c>
       <c r="I6">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J6">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.201463666666667</v>
+        <v>9.771369666666667</v>
       </c>
       <c r="N6">
-        <v>9.604391</v>
+        <v>29.314109</v>
       </c>
       <c r="O6">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="P6">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="Q6">
-        <v>13.55395989043867</v>
+        <v>41.36881324489467</v>
       </c>
       <c r="R6">
-        <v>121.985639013948</v>
+        <v>372.3193192040521</v>
       </c>
       <c r="S6">
-        <v>0.175729618932096</v>
+        <v>0.4074009531547588</v>
       </c>
       <c r="T6">
-        <v>0.175729618932096</v>
+        <v>0.4074009531547589</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.701028</v>
       </c>
       <c r="I7">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J7">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>8.274391</v>
       </c>
       <c r="O7">
-        <v>0.1967696347387152</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="P7">
-        <v>0.1967696347387151</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="Q7">
         <v>11.67703019710533</v>
@@ -883,10 +883,10 @@
         <v>105.093271773948</v>
       </c>
       <c r="S7">
-        <v>0.1513948752529093</v>
+        <v>0.1149956418656681</v>
       </c>
       <c r="T7">
-        <v>0.1513948752529093</v>
+        <v>0.1149956418656681</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.701028</v>
       </c>
       <c r="I8">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J8">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.614187000000001</v>
+        <v>1.889356</v>
       </c>
       <c r="N8">
-        <v>22.842561</v>
+        <v>5.668068</v>
       </c>
       <c r="O8">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="P8">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="Q8">
-        <v>32.23600076141201</v>
+        <v>7.998921152656</v>
       </c>
       <c r="R8">
-        <v>290.1240068527081</v>
+        <v>71.990290373904</v>
       </c>
       <c r="S8">
-        <v>0.4179457645948774</v>
+        <v>0.07877354572659834</v>
       </c>
       <c r="T8">
-        <v>0.4179457645948775</v>
+        <v>0.07877354572659832</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>12.701028</v>
       </c>
       <c r="I9">
-        <v>0.769401617551114</v>
+        <v>0.6312226244877757</v>
       </c>
       <c r="J9">
-        <v>0.7694016175511141</v>
+        <v>0.6312226244877758</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.4432716666666667</v>
+        <v>0.7207983333333333</v>
       </c>
       <c r="N9">
-        <v>1.329815</v>
+        <v>2.162395</v>
       </c>
       <c r="O9">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302628</v>
       </c>
       <c r="P9">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302627</v>
       </c>
       <c r="Q9">
-        <v>1.876668616646667</v>
+        <v>3.051626604673333</v>
       </c>
       <c r="R9">
-        <v>16.89001754982</v>
+        <v>27.46463944206</v>
       </c>
       <c r="S9">
-        <v>0.02433135877123134</v>
+        <v>0.03005248374075039</v>
       </c>
       <c r="T9">
-        <v>0.02433135877123134</v>
+        <v>0.03005248374075039</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H10">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I10">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J10">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.201463666666667</v>
+        <v>9.771369666666667</v>
       </c>
       <c r="N10">
-        <v>9.604391</v>
+        <v>29.314109</v>
       </c>
       <c r="O10">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="P10">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="Q10">
-        <v>1.998521163998555</v>
+        <v>16.28272052856655</v>
       </c>
       <c r="R10">
-        <v>17.986690475987</v>
+        <v>146.544484757099</v>
       </c>
       <c r="S10">
-        <v>0.02591119978338882</v>
+        <v>0.160352578257952</v>
       </c>
       <c r="T10">
-        <v>0.02591119978338882</v>
+        <v>0.160352578257952</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H11">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I11">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J11">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>8.274391</v>
       </c>
       <c r="O11">
-        <v>0.1967696347387152</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="P11">
-        <v>0.1967696347387151</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="Q11">
-        <v>1.721769296220778</v>
+        <v>4.596066562933444</v>
       </c>
       <c r="R11">
-        <v>15.495923665987</v>
+        <v>41.364599066401</v>
       </c>
       <c r="S11">
-        <v>0.02232306018016909</v>
+        <v>0.04526216131503072</v>
       </c>
       <c r="T11">
-        <v>0.02232306018016909</v>
+        <v>0.04526216131503071</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H12">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I12">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J12">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.614187000000001</v>
+        <v>1.889356</v>
       </c>
       <c r="N12">
-        <v>22.842561</v>
+        <v>5.668068</v>
       </c>
       <c r="O12">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="P12">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="Q12">
-        <v>4.753174001186334</v>
+        <v>3.148366787505333</v>
       </c>
       <c r="R12">
-        <v>42.778566010677</v>
+        <v>28.335301087548</v>
       </c>
       <c r="S12">
-        <v>0.06162578779177629</v>
+        <v>0.03100518311988925</v>
       </c>
       <c r="T12">
-        <v>0.0616257877917763</v>
+        <v>0.03100518311988925</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6242523333333333</v>
+        <v>1.666370333333333</v>
       </c>
       <c r="H13">
-        <v>1.872757</v>
+        <v>4.999111</v>
       </c>
       <c r="I13">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="J13">
-        <v>0.1134476882564287</v>
+        <v>0.248448548064433</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4432716666666667</v>
+        <v>0.7207983333333333</v>
       </c>
       <c r="N13">
-        <v>1.329815</v>
+        <v>2.162395</v>
       </c>
       <c r="O13">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302628</v>
       </c>
       <c r="P13">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302627</v>
       </c>
       <c r="Q13">
-        <v>0.2767133722172222</v>
+        <v>1.201116958982778</v>
       </c>
       <c r="R13">
-        <v>2.490420349955</v>
+        <v>10.810052630845</v>
       </c>
       <c r="S13">
-        <v>0.003587640501094469</v>
+        <v>0.01182862537156098</v>
       </c>
       <c r="T13">
-        <v>0.003587640501094469</v>
+        <v>0.01182862537156098</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H14">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I14">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J14">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.201463666666667</v>
+        <v>9.771369666666667</v>
       </c>
       <c r="N14">
-        <v>9.604391</v>
+        <v>29.314109</v>
       </c>
       <c r="O14">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="P14">
-        <v>0.2283977768222221</v>
+        <v>0.6454156383975566</v>
       </c>
       <c r="Q14">
-        <v>0.1565931923276667</v>
+        <v>0.1121590381572222</v>
       </c>
       <c r="R14">
-        <v>1.409338730949</v>
+        <v>1.009431343415</v>
       </c>
       <c r="S14">
-        <v>0.002030259956318248</v>
+        <v>0.001104544594491416</v>
       </c>
       <c r="T14">
-        <v>0.002030259956318248</v>
+        <v>0.001104544594491416</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H15">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I15">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J15">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>8.274391</v>
       </c>
       <c r="O15">
-        <v>0.1967696347387152</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="P15">
-        <v>0.1967696347387151</v>
+        <v>0.1821792144395723</v>
       </c>
       <c r="Q15">
-        <v>0.1349084289943333</v>
+        <v>0.03165873934277778</v>
       </c>
       <c r="R15">
-        <v>1.214175860949</v>
+        <v>0.284928654085</v>
       </c>
       <c r="S15">
-        <v>0.001749112953670889</v>
+        <v>0.0003117759387385243</v>
       </c>
       <c r="T15">
-        <v>0.001749112953670889</v>
+        <v>0.0003117759387385242</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H16">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I16">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J16">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.614187000000001</v>
+        <v>1.889356</v>
       </c>
       <c r="N16">
-        <v>22.842561</v>
+        <v>5.668068</v>
       </c>
       <c r="O16">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="P16">
-        <v>0.543208845758778</v>
+        <v>0.1247951874198449</v>
       </c>
       <c r="Q16">
-        <v>0.3724327287310001</v>
+        <v>0.02168665795333333</v>
       </c>
       <c r="R16">
-        <v>3.351894558579001</v>
+        <v>0.19517992158</v>
       </c>
       <c r="S16">
-        <v>0.004828659817999592</v>
+        <v>0.0002135706690116275</v>
       </c>
       <c r="T16">
-        <v>0.004828659817999592</v>
+        <v>0.0002135706690116275</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.04891300000000001</v>
+        <v>0.01147833333333333</v>
       </c>
       <c r="H17">
-        <v>0.146739</v>
+        <v>0.034435</v>
       </c>
       <c r="I17">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="J17">
-        <v>0.008889140623722185</v>
+        <v>0.00171136943200476</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.4432716666666667</v>
+        <v>0.7207983333333333</v>
       </c>
       <c r="N17">
-        <v>1.329815</v>
+        <v>2.162395</v>
       </c>
       <c r="O17">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302628</v>
       </c>
       <c r="P17">
-        <v>0.03162374268028481</v>
+        <v>0.04760995974302627</v>
       </c>
       <c r="Q17">
-        <v>0.02168174703166667</v>
+        <v>0.008273563536111112</v>
       </c>
       <c r="R17">
-        <v>0.195135723285</v>
+        <v>0.074462071825</v>
       </c>
       <c r="S17">
-        <v>0.0002811078957334568</v>
+        <v>8.147822976319238E-05</v>
       </c>
       <c r="T17">
-        <v>0.0002811078957334568</v>
+        <v>8.147822976319237E-05</v>
       </c>
     </row>
   </sheetData>
